--- a/GA-VRPTW/test.xlsx
+++ b/GA-VRPTW/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Desktop/GA_VRPTW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Documents/GitHub/GA-VRPTW/GA-VRPTW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAE49FB-B75F-1448-847F-2D85CCC86C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88372987-3B8E-EF4A-B502-41157D21AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0C3EEF46-7202-6844-8561-F5C4A30607B7}"/>
+    <workbookView xWindow="5660" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0C3EEF46-7202-6844-8561-F5C4A30607B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,9 +398,6 @@
       <c r="C1">
         <v>50</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
       <c r="E1">
         <v>0</v>
       </c>
@@ -421,9 +418,6 @@
       <c r="C2">
         <v>68</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
         <v>912</v>
       </c>
@@ -444,9 +438,6 @@
       <c r="C3">
         <v>70</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
       <c r="E3">
         <v>825</v>
       </c>
@@ -467,9 +458,6 @@
       <c r="C4">
         <v>66</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
         <v>65</v>
       </c>
@@ -490,9 +478,6 @@
       <c r="C5">
         <v>68</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
         <v>727</v>
       </c>
@@ -513,9 +498,6 @@
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
       <c r="E6">
         <v>15</v>
       </c>
@@ -536,9 +518,6 @@
       <c r="C7">
         <v>69</v>
       </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>621</v>
       </c>
@@ -559,9 +538,6 @@
       <c r="C8">
         <v>66</v>
       </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>170</v>
       </c>
@@ -582,9 +558,6 @@
       <c r="C9">
         <v>68</v>
       </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>255</v>
       </c>
@@ -605,9 +578,6 @@
       <c r="C10">
         <v>70</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10">
         <v>534</v>
       </c>
@@ -627,9 +597,6 @@
       </c>
       <c r="C11">
         <v>66</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
       </c>
       <c r="E11">
         <v>357</v>
